--- a/results/results_json.xlsx
+++ b/results/results_json.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,236 +424,711 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>buyback_percent</t>
+          <t>mu_sl</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>profit_r_opt</t>
+          <t>sigma_SL</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>k_opt</t>
+          <t>SL</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SL_opt</t>
+          <t>k</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>prof_m</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>profit_r_m_opt</t>
+          <t>profit_r</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>3522.127452039103</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.308166864743739</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9000000000000002</v>
+        <v>-1.564873257974018</v>
       </c>
       <c r="E2" t="n">
-        <v>2283.0094339717</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3522.127452039103</v>
+        <v>1400.053934292249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1</v>
+        <v>105</v>
       </c>
       <c r="B3" t="n">
-        <v>3638.749735254945</v>
+        <v>30.7408522978788</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.215084252228353</v>
+        <v>0.61</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9100000000000003</v>
+        <v>-1.574573621279263</v>
       </c>
       <c r="E3" t="n">
-        <v>2339.878289239412</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3638.749735254945</v>
+        <v>1464.225470805321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2</v>
+        <v>110</v>
       </c>
       <c r="B4" t="n">
-        <v>3768.668898383063</v>
+        <v>31.46426544510455</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1151833130274135</v>
+        <v>0.62</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9200000000000003</v>
+        <v>-1.579106229041839</v>
       </c>
       <c r="E4" t="n">
-        <v>2393.970723357855</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3768.668898383063</v>
+        <v>1531.171190928034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
-        <v>3916.133761392328</v>
+        <v>32.17141588429083</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.006848207667391904</v>
+        <v>0.63</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9300000000000003</v>
+        <v>-1.578732289916762</v>
       </c>
       <c r="E5" t="n">
-        <v>2444.211766177398</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3916.133761392328</v>
+        <v>1600.977087122137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4</v>
+        <v>120</v>
       </c>
       <c r="B6" t="n">
-        <v>4086.834571180704</v>
+        <v>32.86335345030997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1122652161048024</v>
+        <v>0.64</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9400000000000003</v>
+        <v>-1.573701254791095</v>
       </c>
       <c r="E6" t="n">
-        <v>2489.115717801057</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4086.834571180704</v>
+        <v>1673.706172789737</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5</v>
+        <v>125</v>
       </c>
       <c r="B7" t="n">
-        <v>4288.635987904212</v>
+        <v>33.54101966249685</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2457367568615272</v>
+        <v>0.65</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9500000000000003</v>
+        <v>-1.564251466429695</v>
       </c>
       <c r="E7" t="n">
-        <v>2526.524362951924</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4288.635987904212</v>
+        <v>1749.400717173971</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6000000000000001</v>
+        <v>130</v>
       </c>
       <c r="B8" t="n">
-        <v>4532.937989470634</v>
+        <v>34.20526275297414</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3994404705309545</v>
+        <v>0.66</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9600000000000003</v>
+        <v>-1.550610405321756</v>
       </c>
       <c r="E8" t="n">
-        <v>2553.07716109055</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4532.937989470634</v>
+        <v>1828.084285875964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7000000000000001</v>
+        <v>135</v>
       </c>
       <c r="B9" t="n">
-        <v>4837.546779720995</v>
+        <v>34.85685011586676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5840919875461349</v>
+        <v>0.67</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9700000000000003</v>
+        <v>-1.532994644966544</v>
       </c>
       <c r="E9" t="n">
-        <v>2562.975706716522</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4837.546779720995</v>
+        <v>1909.763611405996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8</v>
+        <v>140</v>
       </c>
       <c r="B10" t="n">
-        <v>5234.058475601885</v>
+        <v>35.49647869859771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8228905183271843</v>
+        <v>0.68</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9800000000000003</v>
+        <v>-1.511609598308253</v>
       </c>
       <c r="E10" t="n">
-        <v>2544.396754524257</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4837.546779720995</v>
+        <v>1994.430310390958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9</v>
+        <v>145.0000000000001</v>
       </c>
       <c r="B11" t="n">
-        <v>5795.287938537846</v>
+        <v>36.12478373637689</v>
       </c>
       <c r="C11" t="n">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.486649113464739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2082.062458432549</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>150.0000000000001</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36.74234614174768</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.458294958789778</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2172.6260295536</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>155.0000000000001</v>
+      </c>
+      <c r="B13" t="n">
+        <v>37.3496987939662</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7100000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.426716222918988</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2266.076204232298</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>160.0000000000001</v>
+      </c>
+      <c r="B14" t="n">
+        <v>37.94733192202056</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.392068643515784</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2362.358547851454</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>165.0000000000001</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38.5356977359954</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7300000000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.354493868000691</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2461.410059688573</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>170.0000000000001</v>
+      </c>
+      <c r="B16" t="n">
+        <v>39.1152144312159</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.314118639825947</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2563.160091090423</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>175.0000000000001</v>
+      </c>
+      <c r="B17" t="n">
+        <v>39.68626966596887</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.271053894141208</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2667.531129974114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>180.0000000000001</v>
+      </c>
+      <c r="B18" t="n">
+        <v>40.24922359499622</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7600000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1.225393736252988</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2774.439447040404</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>185.0000000000001</v>
+      </c>
+      <c r="B19" t="n">
+        <v>40.80441152620634</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7700000000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.177214264272906</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2883.795596816949</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>190.0000000000001</v>
+      </c>
+      <c r="B20" t="n">
+        <v>41.35214625627068</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7800000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.12657218272287</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2995.504763555784</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>195.0000000000001</v>
+      </c>
+      <c r="B21" t="n">
+        <v>41.89272013130683</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7900000000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.073503135182093</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3109.46693769418</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>200.0000000000001</v>
+      </c>
+      <c r="B22" t="n">
+        <v>42.42640687119286</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8000000000000002</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.018019659281842</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3225.576902494209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>205.0000000000001</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42.95346318982907</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8100000000000002</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.9601086334708503</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3343.724001802173</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>210.0000000000001</v>
+      </c>
+      <c r="B24" t="n">
+        <v>43.47413023856833</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8200000000000002</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.8997280374272489</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3463.791647405281</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>215.0000000000001</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43.98863489584555</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8300000000000002</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.8368027796951938</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3585.65650633621</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>220.0000000000001</v>
+      </c>
+      <c r="B26" t="n">
+        <v>44.49719092257399</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8400000000000002</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.7712192457909768</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3709.187281704289</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>225.0000000000001</v>
+      </c>
+      <c r="B27" t="n">
+        <v>45.00000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.7028180692262014</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3834.242960344558</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>230.0000000000001</v>
+      </c>
+      <c r="B28" t="n">
+        <v>45.49725266430932</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8600000000000002</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.6313843957087247</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3960.670338598602</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>235.0000000000001</v>
+      </c>
+      <c r="B29" t="n">
+        <v>45.98912915026769</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8700000000000002</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.5566345437285836</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4088.300539741745</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>240.0000000000001</v>
+      </c>
+      <c r="B30" t="n">
+        <v>46.47580015448901</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8800000000000002</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.4781973671861145</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4216.944077690959</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>245.0000000000001</v>
+      </c>
+      <c r="B31" t="n">
+        <v>46.9574275274956</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8900000000000002</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.3955876200532238</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4346.383754785254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>250.0000000000001</v>
+      </c>
+      <c r="B32" t="n">
+        <v>47.4341649025257</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9000000000000002</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.308166864743739</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4476.364215771197</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>255.0000000000002</v>
+      </c>
+      <c r="B33" t="n">
+        <v>47.90615826801395</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9100000000000003</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.215084252228353</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4606.576130535403</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>260.0000000000001</v>
+      </c>
+      <c r="B34" t="n">
+        <v>48.37354648979132</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9200000000000003</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.1151833130274135</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4736.631344609583</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>265.0000000000001</v>
+      </c>
+      <c r="B35" t="n">
+        <v>48.83646178829913</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9300000000000003</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.006848207667391904</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4866.021992023261</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>270.0000000000001</v>
+      </c>
+      <c r="B36" t="n">
+        <v>49.29503017546497</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9400000000000003</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1122652161048024</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4994.049170299394</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>275.0000000000002</v>
+      </c>
+      <c r="B37" t="n">
+        <v>49.74937185533101</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9500000000000003</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2457367568615272</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5119.688766550475</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>280.0000000000002</v>
+      </c>
+      <c r="B38" t="n">
+        <v>50.19960159204455</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9600000000000003</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.3994404705309545</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5241.312254871305</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>285.0000000000001</v>
+      </c>
+      <c r="B39" t="n">
+        <v>50.64582904840241</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9700000000000003</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5840919875461349</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5356.016674000359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>290.0000000000002</v>
+      </c>
+      <c r="B40" t="n">
+        <v>51.08815909777922</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9800000000000003</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8228905183271843</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5457.620037355958</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>295.0000000000002</v>
+      </c>
+      <c r="B41" t="n">
+        <v>51.52669211195303</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9900000000000003</v>
+      </c>
+      <c r="D41" t="n">
         <v>1.186017350867733</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.9900000000000003</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2463.874450377902</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4837.546779720995</v>
+      <c r="E41" t="n">
+        <v>5527.638389871608</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>